--- a/back-end/uploadExcel/academic_council.xlsx
+++ b/back-end/uploadExcel/academic_council.xlsx
@@ -246,9 +246,6 @@
     <t>Nominees of the University</t>
   </si>
   <si>
-    <t>Faculty member, nominated by the Principa</t>
-  </si>
-  <si>
     <t>Member</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>Ramaiah Institute of Technology</t>
+  </si>
+  <si>
+    <t>Faculty member, nominated by the Principal</t>
   </si>
 </sst>
 </file>
@@ -712,7 +712,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -757,13 +757,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
@@ -780,10 +780,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
@@ -800,10 +800,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
@@ -820,10 +820,10 @@
         <v>22</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
@@ -840,10 +840,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
@@ -860,10 +860,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -880,10 +880,10 @@
         <v>23</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
@@ -900,10 +900,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
@@ -920,10 +920,10 @@
         <v>24</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -940,10 +940,10 @@
         <v>14</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
@@ -960,10 +960,10 @@
         <v>25</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
@@ -980,10 +980,10 @@
         <v>15</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
@@ -1000,10 +1000,10 @@
         <v>26</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
@@ -1040,10 +1040,10 @@
         <v>17</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30">
@@ -1060,10 +1060,10 @@
         <v>18</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30">
@@ -1080,10 +1080,10 @@
         <v>19</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30.75" thickBot="1">
@@ -1100,10 +1100,10 @@
         <v>20</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="85.5">
@@ -1120,10 +1120,10 @@
         <v>27</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="85.5">
@@ -1140,10 +1140,10 @@
         <v>28</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="85.5">
@@ -1160,10 +1160,10 @@
         <v>57</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="86.25" thickBot="1">
@@ -1180,10 +1180,10 @@
         <v>59</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="71.25">
@@ -1200,10 +1200,10 @@
         <v>61</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="71.25">
@@ -1220,10 +1220,10 @@
         <v>64</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="71.25">
@@ -1240,10 +1240,10 @@
         <v>65</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="71.25">
@@ -1260,10 +1260,10 @@
         <v>66</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="71.25">
@@ -1280,10 +1280,10 @@
         <v>67</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="72" thickBot="1">
@@ -1300,10 +1300,10 @@
         <v>68</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30">
@@ -1320,10 +1320,10 @@
         <v>69</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30">
@@ -1340,10 +1340,10 @@
         <v>71</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30.75" thickBot="1">
@@ -1360,10 +1360,10 @@
         <v>70</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30.75" thickBot="1">
@@ -1371,7 +1371,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>62</v>
@@ -1383,7 +1383,7 @@
         <v>9</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
